--- a/biology/Médecine/Aeromonadaceae/Aeromonadaceae.xlsx
+++ b/biology/Médecine/Aeromonadaceae/Aeromonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aeromonadaceae sont une famille de bactéries à Gram négatif de la classe des Gammaproteobacteria[3]. Elles sont associées à l'environnement aquatique et certaines espèces de cette famille peuvent être des pathogènes opportunistes pour l'homme et les animaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aeromonadaceae sont une famille de bactéries à Gram négatif de la classe des Gammaproteobacteria. Elles sont associées à l'environnement aquatique et certaines espèces de cette famille peuvent être des pathogènes opportunistes pour l'homme et les animaux.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces incluses dans cette famille sont des bacilles à Gram négatif anaérobies facultatives et en général oxidase-positives[4],[5]. Les membres de cette famille des acides gras majoritaires et des lipides polaires permettant de définir phénotypiquement cette famille[6]. Elles sont surtout retrouvées dans les eaux des estuaires, l'eau douce, les eaux usées ainsi que dans le sol. Quelques espèces sont pathogènes pour l'homme et les autres animaux tels que les poissons et les grenouilles[4]. Chez l'homme, elles sont capables de provoquer des infections extra-instestinales et des diarrhées[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces incluses dans cette famille sont des bacilles à Gram négatif anaérobies facultatives et en général oxidase-positives,. Les membres de cette famille des acides gras majoritaires et des lipides polaires permettant de définir phénotypiquement cette famille. Elles sont surtout retrouvées dans les eaux des estuaires, l'eau douce, les eaux usées ainsi que dans le sol. Quelques espèces sont pathogènes pour l'homme et les autres animaux tels que les poissons et les grenouilles. Chez l'homme, elles sont capables de provoquer des infections extra-instestinales et des diarrhées.
 </t>
         </is>
       </c>
@@ -544,10 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-La famille des Aeromonadaceae (Colwell et al. 1986)[1] a été nommée d'après son genre type, Aeromonas (N.L. fem. n. Aeromonas, genre type ; L. fem. pl. suff. -aceae, suffixe pour signifier famille ; N.L. fem. pl. n. Aeromonadaceae, la famille des Aeromonas)[3].
-Sous-comité spécifique à l'ICSP
-Le nom des taxons des Aeromonadaceae est gérée par un sous-comité spécifique de l'ICSP, le sous-comité de taxonomie des Aeromonadaceae, Vibrionaceae et organismes liés[7].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Aeromonadaceae (Colwell et al. 1986) a été nommée d'après son genre type, Aeromonas (N.L. fem. n. Aeromonas, genre type ; L. fem. pl. suff. -aceae, suffixe pour signifier famille ; N.L. fem. pl. n. Aeromonadaceae, la famille des Aeromonas).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aeromonadaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeromonadaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-comité spécifique à l'ICSP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom des taxons des Aeromonadaceae est gérée par un sous-comité spécifique de l'ICSP, le sous-comité de taxonomie des Aeromonadaceae, Vibrionaceae et organismes liés.
 </t>
         </is>
       </c>
